--- a/public/sample_uploads/fund_ratios/valuations.xlsx
+++ b/public/sample_uploads/fund_ratios/valuations.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b9b322f8db0eee2/Desktop/Ausang/AltConnects/Demo Inc Formats/Demo fund info/Ratios fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F439C-3D76-4834-9504-EB766739BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{904907C4-179E-442C-A479-681AF796E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A08572-4A3A-47CB-943C-5F2E665A5FB8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -56,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Mandatory in dd/mm/yyyy format</t>
@@ -71,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -80,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Mandatory
@@ -96,7 +99,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -105,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Mandatory
@@ -121,7 +124,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -130,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Mandatory: Portfolio Company name as recorded on CapHive</t>
@@ -145,7 +148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -154,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Mandatory
@@ -167,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Valuation Date *</t>
   </si>
@@ -184,13 +187,16 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>EITUDUPF</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
-    <t>Ego Pvt Ltd</t>
+    <t>CCPS</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 1</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 2</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -212,14 +218,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -234,43 +240,32 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDF3FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -293,28 +288,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,23 +579,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="2"/>
+    <col min="4" max="4" width="18.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.1328125" style="2"/>
+    <col min="10" max="10" width="14.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1328125" style="2"/>
+    <col min="13" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,107 +617,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45657</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45657</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>45565</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>45747</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>45016</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>45747</v>
+      </c>
+      <c r="C6" s="2">
+        <v>250</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44880</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>44880</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>45747</v>
+      </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://dev.altconnects.com/investment_instruments/9" xr:uid="{376DCBBF-B20E-444E-9442-FBF0666D103F}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://dev.altconnects.com/investment_instruments/201" xr:uid="{365D5A01-DA41-4080-9A41-EF52DF0361C8}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://dev.altconnects.com/investment_instruments/9" xr:uid="{D222590D-8DEE-4C25-A4BE-EDE66D448073}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://dev.altconnects.com/investment_instruments/9" xr:uid="{4F7BF3BB-B07D-47F8-BEC1-E3AAE6D75ED6}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://dev.altconnects.com/investment_instruments/9" xr:uid="{74C74BE3-FEE1-42F2-9138-D9AECC470298}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://dev.altconnects.com/investment_instruments/201" xr:uid="{00670D64-27B2-4CBE-AB84-C006215CF0B0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/fund_ratios/valuations.xlsx
+++ b/public/sample_uploads/fund_ratios/valuations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{904907C4-179E-442C-A479-681AF796E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A08572-4A3A-47CB-943C-5F2E665A5FB8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{904907C4-179E-442C-A479-681AF796E0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AF64EA-A3DA-496C-B54E-2B9CE6F4DC01}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Valuation Date *</t>
   </si>
@@ -193,10 +193,10 @@
     <t>CCPS</t>
   </si>
   <si>
-    <t>TSTF1 Port Co 1</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 2</t>
+    <t>TSTF2 Port Co 3</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 4</t>
   </si>
 </sst>
 </file>
@@ -579,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -630,6 +630,9 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -639,24 +642,27 @@
         <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>45382</v>
+      <c r="A4" s="4">
+        <v>45747</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -667,51 +673,14 @@
         <v>45747</v>
       </c>
       <c r="C5" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>45747</v>
-      </c>
-      <c r="C6" s="2">
-        <v>250</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>45747</v>
-      </c>
-      <c r="C7" s="2">
-        <v>250</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
